--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1545.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1545.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.325751861378476</v>
+        <v>1.617890119552612</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>3.28220796585083</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>4.333929538726807</v>
       </c>
       <c r="D1">
-        <v>1.496349882473817</v>
+        <v>1.342411398887634</v>
       </c>
       <c r="E1">
-        <v>0.8781323649132868</v>
+        <v>0.7859049439430237</v>
       </c>
     </row>
   </sheetData>
